--- a/classfiers/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
+++ b/classfiers/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8181818181818181</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9053254437869822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.467948717948718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9871794871794872</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5692307692307692</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6169696969696969</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8361932938856016</v>
+        <v>0.9974358974358974</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
+++ b/classfiers/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9848484848484848</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7263157894736842</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974358974358974</v>
+        <v>0.9969696969696968</v>
       </c>
     </row>
   </sheetData>
